--- a/Sage Import Transactions.xlsx
+++ b/Sage Import Transactions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="260" windowWidth="35660" windowHeight="26660" tabRatio="500"/>
+    <workbookView xWindow="17100" yWindow="2580" windowWidth="35660" windowHeight="26660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions.csv" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>SANDWICH SHOP</t>
   </si>
   <si>
-    <t>Train to somewhere</t>
+    <t>Something special</t>
   </si>
 </sst>
 </file>
@@ -570,8 +570,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -679,9 +683,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -691,8 +692,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -718,6 +722,8 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -743,29 +749,11 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1125,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:U41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1164,7 +1152,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="44" t="s">
@@ -1176,7 +1164,7 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>66</v>
       </c>
       <c r="T4" s="28" t="s">
@@ -1190,7 +1178,7 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>67</v>
       </c>
       <c r="T5" s="28" t="s">
@@ -1204,7 +1192,7 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>68</v>
       </c>
       <c r="T6" s="28" t="s">
@@ -1216,7 +1204,7 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>69</v>
       </c>
       <c r="T7" s="30" t="s">
@@ -2111,7 +2099,7 @@
         <f>VLOOKUP($T41,$T$4:$U$7,2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K41" s="53" t="e">
+      <c r="K41" s="52" t="e">
         <f>VLOOKUP($I41,$C$12:$T$39,16, FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2132,7 +2120,7 @@
       </c>
       <c r="Q41" s="18"/>
       <c r="R41" s="11" t="e">
-        <f>VLOOKUP($I41,$C$12:$T$39,16, FALSE)</f>
+        <f>K41</f>
         <v>#N/A</v>
       </c>
       <c r="S41" s="13" t="e">
@@ -2189,10 +2177,10 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="32"/>
-      <c r="L43" s="47" t="s">
+      <c r="L43" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="M43" s="47"/>
+      <c r="M43" s="54"/>
       <c r="P43" s="1"/>
       <c r="R43"/>
       <c r="S43" s="4"/>
@@ -2283,20 +2271,20 @@
       <c r="E45" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G45" s="27"/>
-      <c r="H45" s="51"/>
+      <c r="H45" s="50"/>
       <c r="I45" s="32" t="str">
         <f t="shared" ref="I45:I61" si="1">IF(ISBLANK(H45),C45,"*"&amp;H45&amp;"*")</f>
         <v xml:space="preserve">HMRC VAT </v>
       </c>
       <c r="J45" s="32">
-        <f>VLOOKUP($T45,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="53" t="str">
+        <f t="shared" ref="J45:J79" si="2">VLOOKUP($T45,$T$4:$U$7,2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="52" t="str">
         <f>VLOOKUP($I45,$C$12:$T$39,16, FALSE)</f>
         <v>VAT</v>
       </c>
@@ -2312,16 +2300,16 @@
       </c>
       <c r="O45" s="18"/>
       <c r="P45" s="19">
-        <f>A45</f>
+        <f t="shared" ref="P45:P61" si="3">A45</f>
         <v>41306</v>
       </c>
       <c r="Q45" s="18"/>
       <c r="R45" s="11" t="str">
-        <f>VLOOKUP($I45,$C$12:$T$39,16, FALSE)</f>
+        <f>K45</f>
         <v>VAT</v>
       </c>
       <c r="S45" s="13">
-        <f>D45-U45</f>
+        <f t="shared" ref="S45:S61" si="4">D45-U45</f>
         <v>3314.99</v>
       </c>
       <c r="T45" s="11" t="str">
@@ -2329,7 +2317,7 @@
         <v>T9</v>
       </c>
       <c r="U45" s="41">
-        <f>D45*J45/(J45+1)</f>
+        <f t="shared" ref="U45:U61" si="5">D45*J45/(J45+1)</f>
         <v>0</v>
       </c>
       <c r="V45" s="27"/>
@@ -2354,11 +2342,11 @@
       <c r="E46" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G46" s="39"/>
-      <c r="H46" s="51" t="s">
+      <c r="H46" s="50" t="s">
         <v>52</v>
       </c>
       <c r="I46" s="32" t="str">
@@ -2366,44 +2354,44 @@
         <v>*pay*</v>
       </c>
       <c r="J46" s="32">
-        <f>VLOOKUP($T46,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="53" t="str">
-        <f t="shared" ref="K46:K79" si="2">VLOOKUP($I46,$C$12:$T$39,16, FALSE)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="52" t="str">
+        <f t="shared" ref="K46:K79" si="6">VLOOKUP($I46,$C$12:$T$39,16, FALSE)</f>
         <v>Wages</v>
       </c>
       <c r="L46" s="11" t="str">
-        <f>IF(ISNUMBER(D46),"BP","")</f>
+        <f t="shared" ref="L46:L61" si="7">IF(ISNUMBER(D46),"BP","")</f>
         <v>BP</v>
       </c>
       <c r="M46" s="11">
         <v>1200</v>
       </c>
       <c r="N46" s="11">
-        <f t="shared" ref="N46:N79" si="3">VLOOKUP($I46,$C$12:$S$39,12,FALSE)</f>
+        <f t="shared" ref="N46:N79" si="8">VLOOKUP($I46,$C$12:$S$39,12,FALSE)</f>
         <v>2220</v>
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="12">
-        <f>A46</f>
+        <f t="shared" si="3"/>
         <v>41309</v>
       </c>
       <c r="Q46" s="11"/>
       <c r="R46" s="11" t="str">
-        <f t="shared" ref="R46:R79" si="4">VLOOKUP($I46,$C$12:$T$39,16, FALSE)</f>
+        <f t="shared" ref="R46:R79" si="9">K46</f>
         <v>Wages</v>
       </c>
       <c r="S46" s="13">
-        <f>D46-U46</f>
+        <f t="shared" si="4"/>
         <v>736.08</v>
       </c>
       <c r="T46" s="11" t="str">
-        <f t="shared" ref="T46:T79" si="5">VLOOKUP(I46,$C$12:$T$39,18, FALSE)</f>
+        <f t="shared" ref="T46:T79" si="10">VLOOKUP(I46,$C$12:$T$39,18, FALSE)</f>
         <v>T9</v>
       </c>
       <c r="U46" s="41">
-        <f>D46*J46/(J46+1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V46" s="27"/>
@@ -2428,11 +2416,11 @@
       <c r="E47" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G47" s="39"/>
-      <c r="H47" s="51" t="s">
+      <c r="H47" s="50" t="s">
         <v>53</v>
       </c>
       <c r="I47" s="32" t="str">
@@ -2440,44 +2428,44 @@
         <v>*divi*</v>
       </c>
       <c r="J47" s="32">
-        <f>VLOOKUP($T47,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="53" t="str">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Divi</v>
       </c>
       <c r="L47" s="11" t="str">
-        <f>IF(ISNUMBER(D47),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M47" s="11">
         <v>1200</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3005</v>
       </c>
       <c r="O47" s="11"/>
       <c r="P47" s="12">
-        <f>A47</f>
+        <f t="shared" si="3"/>
         <v>41309</v>
       </c>
       <c r="Q47" s="11"/>
       <c r="R47" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Divi</v>
+      </c>
+      <c r="S47" s="13">
         <f t="shared" si="4"/>
-        <v>Divi</v>
-      </c>
-      <c r="S47" s="13">
-        <f>D47-U47</f>
         <v>4005</v>
       </c>
       <c r="T47" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T9</v>
+      </c>
+      <c r="U47" s="41">
         <f t="shared" si="5"/>
-        <v>T9</v>
-      </c>
-      <c r="U47" s="41">
-        <f>D47*J47/(J47+1)</f>
         <v>0</v>
       </c>
       <c r="V47" s="27"/>
@@ -2502,11 +2490,11 @@
       <c r="E48" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G48" s="39"/>
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="50" t="s">
         <v>57</v>
       </c>
       <c r="I48" s="32" t="str">
@@ -2514,44 +2502,44 @@
         <v>*clothes*</v>
       </c>
       <c r="J48" s="32">
-        <f>VLOOKUP($T48,$T$4:$U$7,2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="K48" s="53" t="str">
-        <f t="shared" si="2"/>
+      <c r="K48" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Clothing</v>
       </c>
       <c r="L48" s="11" t="str">
-        <f>IF(ISNUMBER(D48),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M48" s="11">
         <v>1200</v>
       </c>
       <c r="N48" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8202</v>
       </c>
       <c r="O48" s="11"/>
       <c r="P48" s="12">
-        <f>A48</f>
+        <f t="shared" si="3"/>
         <v>41309</v>
       </c>
       <c r="Q48" s="11"/>
       <c r="R48" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Clothing</v>
+      </c>
+      <c r="S48" s="13">
         <f t="shared" si="4"/>
-        <v>Clothing</v>
-      </c>
-      <c r="S48" s="13">
-        <f>D48-U48</f>
         <v>83.324999999999989</v>
       </c>
       <c r="T48" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T1</v>
+      </c>
+      <c r="U48" s="41">
         <f t="shared" si="5"/>
-        <v>T1</v>
-      </c>
-      <c r="U48" s="41">
-        <f>D48*J48/(J48+1)</f>
         <v>16.665000000000003</v>
       </c>
       <c r="V48" s="27"/>
@@ -2576,54 +2564,54 @@
       <c r="E49" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G49" s="27"/>
-      <c r="H49" s="51"/>
+      <c r="H49" s="50"/>
       <c r="I49" s="32" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SOLD BY GUARDWOK SWTRAINS MOBI </v>
       </c>
       <c r="J49" s="32">
-        <f>VLOOKUP($T49,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="53" t="str">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Train</v>
       </c>
       <c r="L49" s="11" t="str">
-        <f>IF(ISNUMBER(D49),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M49" s="11">
         <v>1200</v>
       </c>
       <c r="N49" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7400</v>
       </c>
       <c r="O49" s="11"/>
       <c r="P49" s="12">
-        <f>A49</f>
+        <f t="shared" si="3"/>
         <v>41316</v>
       </c>
       <c r="Q49" s="11"/>
       <c r="R49" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Train</v>
+      </c>
+      <c r="S49" s="13">
         <f t="shared" si="4"/>
-        <v>Train</v>
-      </c>
-      <c r="S49" s="13">
-        <f>D49-U49</f>
         <v>20.5</v>
       </c>
       <c r="T49" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T0</v>
+      </c>
+      <c r="U49" s="41">
         <f t="shared" si="5"/>
-        <v>T0</v>
-      </c>
-      <c r="U49" s="41">
-        <f>D49*J49/(J49+1)</f>
         <v>0</v>
       </c>
       <c r="V49" s="27"/>
@@ -2648,11 +2636,11 @@
       <c r="E50" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G50" s="39"/>
-      <c r="H50" s="51" t="s">
+      <c r="H50" s="50" t="s">
         <v>47</v>
       </c>
       <c r="I50" s="32" t="str">
@@ -2660,44 +2648,44 @@
         <v>*hardware*</v>
       </c>
       <c r="J50" s="32">
-        <f>VLOOKUP($T50,$T$4:$U$7,2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="K50" s="53" t="str">
-        <f t="shared" si="2"/>
+      <c r="K50" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Misc hardware</v>
       </c>
       <c r="L50" s="11" t="str">
-        <f>IF(ISNUMBER(D50),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M50" s="11">
         <v>1200</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5005</v>
       </c>
       <c r="O50" s="11"/>
       <c r="P50" s="12">
-        <f>A50</f>
+        <f t="shared" si="3"/>
         <v>41316</v>
       </c>
       <c r="Q50" s="11"/>
       <c r="R50" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Misc hardware</v>
+      </c>
+      <c r="S50" s="13">
         <f t="shared" si="4"/>
-        <v>Misc hardware</v>
-      </c>
-      <c r="S50" s="13">
-        <f>D50-U50</f>
         <v>5.541666666666667</v>
       </c>
       <c r="T50" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T1</v>
+      </c>
+      <c r="U50" s="41">
         <f t="shared" si="5"/>
-        <v>T1</v>
-      </c>
-      <c r="U50" s="41">
-        <f>D50*J50/(J50+1)</f>
         <v>1.1083333333333334</v>
       </c>
       <c r="V50" s="27"/>
@@ -2722,11 +2710,11 @@
       <c r="E51" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G51" s="39"/>
-      <c r="H51" s="51" t="s">
+      <c r="H51" s="50" t="s">
         <v>44</v>
       </c>
       <c r="I51" s="32" t="str">
@@ -2734,44 +2722,44 @@
         <v>*KATTARE*</v>
       </c>
       <c r="J51" s="32">
-        <f>VLOOKUP($T51,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="53" t="str">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Web hosting</v>
       </c>
       <c r="L51" s="11" t="str">
-        <f>IF(ISNUMBER(D51),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M51" s="11">
         <v>1200</v>
       </c>
       <c r="N51" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7503</v>
       </c>
       <c r="O51" s="11"/>
       <c r="P51" s="12">
-        <f>A51</f>
+        <f t="shared" si="3"/>
         <v>41318</v>
       </c>
       <c r="Q51" s="11"/>
       <c r="R51" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Web hosting</v>
+      </c>
+      <c r="S51" s="13">
         <f t="shared" si="4"/>
-        <v>Web hosting</v>
-      </c>
-      <c r="S51" s="13">
-        <f>D51-U51</f>
         <v>25.73</v>
       </c>
       <c r="T51" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T0</v>
+      </c>
+      <c r="U51" s="41">
         <f t="shared" si="5"/>
-        <v>T0</v>
-      </c>
-      <c r="U51" s="41">
-        <f>D51*J51/(J51+1)</f>
         <v>0</v>
       </c>
       <c r="V51" s="27"/>
@@ -2796,37 +2784,37 @@
       <c r="E52" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="F52" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G52" s="27"/>
-      <c r="H52" s="51"/>
+      <c r="H52" s="50"/>
       <c r="I52" s="32" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">TICKETOFFICESALE SWTRAINS ALTO </v>
       </c>
       <c r="J52" s="32">
-        <f>VLOOKUP($T52,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="53" t="str">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Train</v>
       </c>
       <c r="L52" s="11" t="str">
-        <f>IF(ISNUMBER(D52),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M52" s="11">
         <v>1200</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7400</v>
       </c>
       <c r="O52" s="11"/>
       <c r="P52" s="12">
-        <f>A52</f>
+        <f t="shared" si="3"/>
         <v>41325</v>
       </c>
       <c r="Q52" s="11"/>
@@ -2834,15 +2822,15 @@
         <v>74</v>
       </c>
       <c r="S52" s="13">
-        <f>D52-U52</f>
+        <f t="shared" si="4"/>
         <v>20.5</v>
       </c>
       <c r="T52" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T0</v>
+      </c>
+      <c r="U52" s="41">
         <f t="shared" si="5"/>
-        <v>T0</v>
-      </c>
-      <c r="U52" s="41">
-        <f>D52*J52/(J52+1)</f>
         <v>0</v>
       </c>
       <c r="V52" s="27"/>
@@ -2867,54 +2855,54 @@
       <c r="E53" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F53" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G53" s="27"/>
-      <c r="H53" s="51"/>
+      <c r="H53" s="50"/>
       <c r="I53" s="32" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SOLD BY GUARDWOK SWTRAINS MOBI </v>
       </c>
       <c r="J53" s="32">
-        <f>VLOOKUP($T53,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="53" t="str">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Train</v>
       </c>
       <c r="L53" s="11" t="str">
-        <f>IF(ISNUMBER(D53),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M53" s="11">
         <v>1200</v>
       </c>
       <c r="N53" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7400</v>
       </c>
       <c r="O53" s="11"/>
       <c r="P53" s="12">
-        <f>A53</f>
+        <f t="shared" si="3"/>
         <v>41326</v>
       </c>
       <c r="Q53" s="11"/>
       <c r="R53" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Train</v>
+      </c>
+      <c r="S53" s="13">
         <f t="shared" si="4"/>
-        <v>Train</v>
-      </c>
-      <c r="S53" s="13">
-        <f>D53-U53</f>
         <v>20.5</v>
       </c>
       <c r="T53" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T0</v>
+      </c>
+      <c r="U53" s="41">
         <f t="shared" si="5"/>
-        <v>T0</v>
-      </c>
-      <c r="U53" s="41">
-        <f>D53*J53/(J53+1)</f>
         <v>0</v>
       </c>
       <c r="V53" s="27"/>
@@ -2939,54 +2927,54 @@
       <c r="E54" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="48" t="s">
+      <c r="F54" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G54" s="27"/>
-      <c r="H54" s="51"/>
+      <c r="H54" s="50"/>
       <c r="I54" s="32" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">O2 UK LTD </v>
       </c>
       <c r="J54" s="32">
-        <f>VLOOKUP($T54,$T$4:$U$7,2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="K54" s="53" t="str">
-        <f t="shared" si="2"/>
+      <c r="K54" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Broadband</v>
       </c>
       <c r="L54" s="11" t="str">
-        <f>IF(ISNUMBER(D54),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M54" s="11">
         <v>1200</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7503</v>
       </c>
       <c r="O54" s="11"/>
       <c r="P54" s="12">
-        <f>A54</f>
+        <f t="shared" si="3"/>
         <v>41327</v>
       </c>
       <c r="Q54" s="11"/>
       <c r="R54" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Broadband</v>
+      </c>
+      <c r="S54" s="13">
         <f t="shared" si="4"/>
-        <v>Broadband</v>
-      </c>
-      <c r="S54" s="13">
-        <f>D54-U54</f>
         <v>17.916666666666668</v>
       </c>
       <c r="T54" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T1</v>
+      </c>
+      <c r="U54" s="41">
         <f t="shared" si="5"/>
-        <v>T1</v>
-      </c>
-      <c r="U54" s="41">
-        <f>D54*J54/(J54+1)</f>
         <v>3.5833333333333335</v>
       </c>
       <c r="V54" s="27"/>
@@ -3011,54 +2999,54 @@
       <c r="E55" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G55" s="27"/>
-      <c r="H55" s="51"/>
+      <c r="H55" s="50"/>
       <c r="I55" s="32" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SELFSERVE TICKET SWTRAINS ALTO </v>
       </c>
       <c r="J55" s="32">
-        <f>VLOOKUP($T55,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K55" s="53" t="str">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Train</v>
       </c>
       <c r="L55" s="11" t="str">
-        <f>IF(ISNUMBER(D55),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M55" s="11">
         <v>1200</v>
       </c>
       <c r="N55" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7400</v>
       </c>
       <c r="O55" s="11"/>
       <c r="P55" s="12">
-        <f>A55</f>
+        <f t="shared" si="3"/>
         <v>41327</v>
       </c>
       <c r="Q55" s="11"/>
       <c r="R55" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Train</v>
+      </c>
+      <c r="S55" s="13">
         <f t="shared" si="4"/>
-        <v>Train</v>
-      </c>
-      <c r="S55" s="13">
-        <f>D55-U55</f>
         <v>20.5</v>
       </c>
       <c r="T55" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T0</v>
+      </c>
+      <c r="U55" s="41">
         <f t="shared" si="5"/>
-        <v>T0</v>
-      </c>
-      <c r="U55" s="41">
-        <f>D55*J55/(J55+1)</f>
         <v>0</v>
       </c>
       <c r="V55" s="27"/>
@@ -3083,54 +3071,54 @@
       <c r="E56" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="48" t="s">
+      <c r="F56" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G56" s="27"/>
-      <c r="H56" s="51"/>
+      <c r="H56" s="50"/>
       <c r="I56" s="32" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">TICKETOFFICESALE SWTRAINS ALTO </v>
       </c>
       <c r="J56" s="32">
-        <f>VLOOKUP($T56,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="53" t="str">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Train</v>
       </c>
       <c r="L56" s="11" t="str">
-        <f>IF(ISNUMBER(D56),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M56" s="11">
         <v>1200</v>
       </c>
       <c r="N56" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7400</v>
       </c>
       <c r="O56" s="11"/>
       <c r="P56" s="12">
-        <f>A56</f>
+        <f t="shared" si="3"/>
         <v>41331</v>
       </c>
       <c r="Q56" s="11"/>
       <c r="R56" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Train</v>
+      </c>
+      <c r="S56" s="13">
         <f t="shared" si="4"/>
-        <v>Train</v>
-      </c>
-      <c r="S56" s="13">
-        <f>D56-U56</f>
         <v>75</v>
       </c>
       <c r="T56" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T0</v>
+      </c>
+      <c r="U56" s="41">
         <f t="shared" si="5"/>
-        <v>T0</v>
-      </c>
-      <c r="U56" s="41">
-        <f>D56*J56/(J56+1)</f>
         <v>0</v>
       </c>
       <c r="V56" s="27"/>
@@ -3155,54 +3143,54 @@
       <c r="E57" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="48" t="s">
+      <c r="F57" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G57" s="27"/>
-      <c r="H57" s="51"/>
+      <c r="H57" s="50"/>
       <c r="I57" s="32" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">O2 </v>
       </c>
       <c r="J57" s="32">
-        <f>VLOOKUP($T57,$T$4:$U$7,2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="K57" s="53" t="str">
-        <f t="shared" si="2"/>
+      <c r="K57" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Mobile</v>
       </c>
       <c r="L57" s="11" t="str">
-        <f>IF(ISNUMBER(D57),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M57" s="11">
         <v>1200</v>
       </c>
       <c r="N57" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7502</v>
       </c>
       <c r="O57" s="11"/>
       <c r="P57" s="12">
-        <f>A57</f>
+        <f t="shared" si="3"/>
         <v>41338</v>
       </c>
       <c r="Q57" s="11"/>
       <c r="R57" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Mobile</v>
+      </c>
+      <c r="S57" s="13">
         <f t="shared" si="4"/>
-        <v>Mobile</v>
-      </c>
-      <c r="S57" s="13">
-        <f>D57-U57</f>
         <v>12.916666666666666</v>
       </c>
       <c r="T57" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T1</v>
+      </c>
+      <c r="U57" s="41">
         <f t="shared" si="5"/>
-        <v>T1</v>
-      </c>
-      <c r="U57" s="41">
-        <f>D57*J57/(J57+1)</f>
         <v>2.5833333333333335</v>
       </c>
       <c r="V57" s="27"/>
@@ -3227,54 +3215,54 @@
       <c r="E58" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G58" s="27"/>
-      <c r="H58" s="51"/>
+      <c r="H58" s="50"/>
       <c r="I58" s="32" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SELFSERVE TICKET SWTRAINS ALTO </v>
       </c>
       <c r="J58" s="32">
-        <f>VLOOKUP($T58,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="53" t="str">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Train</v>
       </c>
       <c r="L58" s="11" t="str">
-        <f>IF(ISNUMBER(D58),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M58" s="11">
         <v>1200</v>
       </c>
       <c r="N58" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7400</v>
       </c>
       <c r="O58" s="11"/>
       <c r="P58" s="12">
-        <f>A58</f>
+        <f t="shared" si="3"/>
         <v>41338</v>
       </c>
       <c r="Q58" s="11"/>
       <c r="R58" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Train</v>
+      </c>
+      <c r="S58" s="13">
         <f t="shared" si="4"/>
-        <v>Train</v>
-      </c>
-      <c r="S58" s="13">
-        <f>D58-U58</f>
         <v>75</v>
       </c>
       <c r="T58" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T0</v>
+      </c>
+      <c r="U58" s="41">
         <f t="shared" si="5"/>
-        <v>T0</v>
-      </c>
-      <c r="U58" s="41">
-        <f>D58*J58/(J58+1)</f>
         <v>0</v>
       </c>
       <c r="V58" s="27"/>
@@ -3299,54 +3287,54 @@
       <c r="E59" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F59" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G59" s="27"/>
-      <c r="H59" s="51"/>
+      <c r="H59" s="50"/>
       <c r="I59" s="32" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SOLD BY GUARDWOK SWTRAINS MOBI </v>
       </c>
       <c r="J59" s="32">
-        <f>VLOOKUP($T59,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K59" s="53" t="str">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Train</v>
       </c>
       <c r="L59" s="11" t="str">
-        <f>IF(ISNUMBER(D59),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M59" s="11">
         <v>1200</v>
       </c>
       <c r="N59" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7400</v>
       </c>
       <c r="O59" s="11"/>
       <c r="P59" s="12">
-        <f>A59</f>
+        <f t="shared" si="3"/>
         <v>41346</v>
       </c>
       <c r="Q59" s="11"/>
       <c r="R59" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Train</v>
+      </c>
+      <c r="S59" s="13">
         <f t="shared" si="4"/>
-        <v>Train</v>
-      </c>
-      <c r="S59" s="13">
-        <f>D59-U59</f>
         <v>75</v>
       </c>
       <c r="T59" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T0</v>
+      </c>
+      <c r="U59" s="41">
         <f t="shared" si="5"/>
-        <v>T0</v>
-      </c>
-      <c r="U59" s="41">
-        <f>D59*J59/(J59+1)</f>
         <v>0</v>
       </c>
       <c r="V59" s="27"/>
@@ -3371,11 +3359,11 @@
       <c r="E60" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="48" t="s">
+      <c r="F60" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G60" s="39"/>
-      <c r="H60" s="51" t="s">
+      <c r="H60" s="50" t="s">
         <v>44</v>
       </c>
       <c r="I60" s="32" t="str">
@@ -3383,44 +3371,44 @@
         <v>*KATTARE*</v>
       </c>
       <c r="J60" s="32">
-        <f>VLOOKUP($T60,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="53" t="str">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Web hosting</v>
       </c>
       <c r="L60" s="11" t="str">
-        <f>IF(ISNUMBER(D60),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M60" s="11">
         <v>1200</v>
       </c>
       <c r="N60" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7503</v>
       </c>
       <c r="O60" s="11"/>
       <c r="P60" s="12">
-        <f>A60</f>
+        <f t="shared" si="3"/>
         <v>41346</v>
       </c>
       <c r="Q60" s="11"/>
       <c r="R60" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Web hosting</v>
+      </c>
+      <c r="S60" s="13">
         <f t="shared" si="4"/>
-        <v>Web hosting</v>
-      </c>
-      <c r="S60" s="13">
-        <f>D60-U60</f>
         <v>27.02</v>
       </c>
       <c r="T60" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T0</v>
+      </c>
+      <c r="U60" s="41">
         <f t="shared" si="5"/>
-        <v>T0</v>
-      </c>
-      <c r="U60" s="41">
-        <f>D60*J60/(J60+1)</f>
         <v>0</v>
       </c>
       <c r="V60" s="27"/>
@@ -3445,54 +3433,54 @@
       <c r="E61" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="48" t="s">
+      <c r="F61" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G61" s="27"/>
-      <c r="H61" s="51"/>
+      <c r="H61" s="50"/>
       <c r="I61" s="32" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SOLD BY GUARDWOK SWTRAINS MOBI </v>
       </c>
       <c r="J61" s="32">
-        <f>VLOOKUP($T61,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="53" t="str">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Train</v>
       </c>
       <c r="L61" s="11" t="str">
-        <f>IF(ISNUMBER(D61),"BP","")</f>
+        <f t="shared" si="7"/>
         <v>BP</v>
       </c>
       <c r="M61" s="11">
         <v>1200</v>
       </c>
       <c r="N61" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7400</v>
       </c>
       <c r="O61" s="11"/>
       <c r="P61" s="12">
-        <f>A61</f>
+        <f t="shared" si="3"/>
         <v>41353</v>
       </c>
       <c r="Q61" s="11"/>
       <c r="R61" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>Train</v>
+      </c>
+      <c r="S61" s="13">
         <f t="shared" si="4"/>
-        <v>Train</v>
-      </c>
-      <c r="S61" s="13">
-        <f>D61-U61</f>
         <v>75</v>
       </c>
       <c r="T61" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>T0</v>
+      </c>
+      <c r="U61" s="41">
         <f t="shared" si="5"/>
-        <v>T0</v>
-      </c>
-      <c r="U61" s="41">
-        <f>D61*J61/(J61+1)</f>
         <v>0</v>
       </c>
       <c r="V61" s="27"/>
@@ -3517,52 +3505,52 @@
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
       <c r="G62" s="27"/>
-      <c r="H62" s="51" t="s">
+      <c r="H62" s="50" t="s">
         <v>49</v>
       </c>
       <c r="I62" s="32" t="str">
-        <f t="shared" ref="I62:I79" si="6">IF(ISBLANK(H62),C62,"*"&amp;H62&amp;"*")</f>
+        <f t="shared" ref="I62:I79" si="11">IF(ISBLANK(H62),C62,"*"&amp;H62&amp;"*")</f>
         <v>*subsist*</v>
       </c>
       <c r="J62" s="32">
-        <f>VLOOKUP($T62,$T$4:$U$7,2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="K62" s="53" t="str">
-        <f t="shared" si="2"/>
+      <c r="K62" s="52" t="str">
+        <f t="shared" si="6"/>
         <v>Subsistence</v>
       </c>
       <c r="L62" s="11" t="str">
-        <f t="shared" ref="L62:L79" si="7">IF(ISNUMBER(D62),"BP","")</f>
+        <f t="shared" ref="L62:L79" si="12">IF(ISNUMBER(D62),"BP","")</f>
         <v>BP</v>
       </c>
       <c r="M62" s="11">
         <v>1200</v>
       </c>
       <c r="N62" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7406</v>
       </c>
       <c r="O62" s="11"/>
       <c r="P62" s="12">
-        <f t="shared" ref="P62:P79" si="8">A62</f>
+        <f t="shared" ref="P62:P79" si="13">A62</f>
         <v>41354</v>
       </c>
       <c r="Q62" s="11"/>
       <c r="R62" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>Subsistence</v>
       </c>
       <c r="S62" s="13">
-        <f t="shared" ref="S62:S79" si="9">D62-U62</f>
+        <f t="shared" ref="S62:S79" si="14">D62-U62</f>
         <v>21.141666666666666</v>
       </c>
       <c r="T62" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>T1</v>
       </c>
       <c r="U62" s="41">
-        <f t="shared" ref="U62:U79" si="10">D62*J62/(J62+1)</f>
+        <f t="shared" ref="U62:U79" si="15">D62*J62/(J62+1)</f>
         <v>4.2283333333333344</v>
       </c>
       <c r="V62" s="27"/>
@@ -3587,52 +3575,52 @@
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="39"/>
-      <c r="H63" s="51" t="s">
+      <c r="H63" s="50" t="s">
         <v>50</v>
       </c>
       <c r="I63" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>*subsist0*</v>
+      </c>
+      <c r="J63" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="52" t="str">
         <f t="shared" si="6"/>
-        <v>*subsist0*</v>
-      </c>
-      <c r="J63" s="32">
-        <f>VLOOKUP($T63,$T$4:$U$7,2, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="53" t="str">
-        <f t="shared" si="2"/>
         <v>Subsistence</v>
       </c>
       <c r="L63" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>BP</v>
       </c>
       <c r="M63" s="11">
         <v>1200</v>
       </c>
       <c r="N63" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7406</v>
       </c>
       <c r="O63" s="11"/>
       <c r="P63" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>41355</v>
       </c>
       <c r="Q63" s="11"/>
       <c r="R63" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>Subsistence</v>
       </c>
       <c r="S63" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5.23</v>
       </c>
       <c r="T63" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>T0</v>
       </c>
       <c r="U63" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V63" s="27"/>
@@ -3649,50 +3637,50 @@
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
       <c r="G64" s="27"/>
-      <c r="H64" s="51"/>
+      <c r="H64" s="50"/>
       <c r="I64" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K64" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="32" t="e">
-        <f>VLOOKUP($T64,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K64" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L64" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M64" s="11">
         <v>1200</v>
       </c>
       <c r="N64" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O64" s="11"/>
       <c r="P64" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q64" s="11"/>
       <c r="R64" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S64" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T64" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U64" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V64" s="27"/>
@@ -3709,50 +3697,50 @@
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="27"/>
-      <c r="H65" s="51"/>
+      <c r="H65" s="50"/>
       <c r="I65" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K65" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="32" t="e">
-        <f>VLOOKUP($T65,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K65" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L65" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M65" s="11">
         <v>1200</v>
       </c>
       <c r="N65" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O65" s="11"/>
       <c r="P65" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q65" s="11"/>
       <c r="R65" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S65" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T65" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U65" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V65" s="27"/>
@@ -3769,50 +3757,50 @@
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="39"/>
-      <c r="H66" s="51"/>
+      <c r="H66" s="50"/>
       <c r="I66" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K66" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="32" t="e">
-        <f>VLOOKUP($T66,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K66" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L66" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M66" s="11">
         <v>1200</v>
       </c>
       <c r="N66" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O66" s="11"/>
       <c r="P66" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q66" s="11"/>
       <c r="R66" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S66" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T66" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U66" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V66" s="27"/>
@@ -3829,50 +3817,50 @@
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
       <c r="G67" s="27"/>
-      <c r="H67" s="51"/>
+      <c r="H67" s="50"/>
       <c r="I67" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K67" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="32" t="e">
-        <f>VLOOKUP($T67,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K67" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L67" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M67" s="11">
         <v>1200</v>
       </c>
       <c r="N67" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O67" s="11"/>
       <c r="P67" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q67" s="11"/>
       <c r="R67" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S67" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T67" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U67" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V67" s="27"/>
@@ -3889,50 +3877,50 @@
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
       <c r="G68" s="27"/>
-      <c r="H68" s="51"/>
+      <c r="H68" s="50"/>
       <c r="I68" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K68" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="32" t="e">
-        <f>VLOOKUP($T68,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K68" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L68" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M68" s="11">
         <v>1200</v>
       </c>
       <c r="N68" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O68" s="11"/>
       <c r="P68" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q68" s="11"/>
       <c r="R68" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S68" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T68" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U68" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V68" s="27"/>
@@ -3949,50 +3937,50 @@
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="27"/>
-      <c r="H69" s="51"/>
+      <c r="H69" s="50"/>
       <c r="I69" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K69" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="32" t="e">
-        <f>VLOOKUP($T69,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K69" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L69" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M69" s="11">
         <v>1200</v>
       </c>
       <c r="N69" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O69" s="11"/>
       <c r="P69" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q69" s="11"/>
       <c r="R69" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S69" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T69" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U69" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V69" s="27"/>
@@ -4009,50 +3997,50 @@
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
       <c r="G70" s="27"/>
-      <c r="H70" s="51"/>
+      <c r="H70" s="50"/>
       <c r="I70" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K70" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="32" t="e">
-        <f>VLOOKUP($T70,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K70" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L70" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M70" s="11">
         <v>1200</v>
       </c>
       <c r="N70" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O70" s="11"/>
       <c r="P70" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q70" s="11"/>
       <c r="R70" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S70" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T70" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U70" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V70" s="27"/>
@@ -4069,50 +4057,50 @@
       <c r="E71" s="23"/>
       <c r="F71" s="23"/>
       <c r="G71" s="27"/>
-      <c r="H71" s="51"/>
+      <c r="H71" s="50"/>
       <c r="I71" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K71" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="32" t="e">
-        <f>VLOOKUP($T71,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K71" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L71" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M71" s="11">
         <v>1200</v>
       </c>
       <c r="N71" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O71" s="11"/>
       <c r="P71" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q71" s="11"/>
       <c r="R71" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S71" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T71" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U71" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V71" s="27"/>
@@ -4129,50 +4117,50 @@
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
       <c r="G72" s="27"/>
-      <c r="H72" s="51"/>
+      <c r="H72" s="50"/>
       <c r="I72" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K72" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="32" t="e">
-        <f>VLOOKUP($T72,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K72" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L72" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M72" s="11">
         <v>1200</v>
       </c>
       <c r="N72" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O72" s="11"/>
       <c r="P72" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q72" s="11"/>
       <c r="R72" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S72" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T72" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U72" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V72" s="27"/>
@@ -4189,50 +4177,50 @@
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="27"/>
-      <c r="H73" s="51"/>
+      <c r="H73" s="50"/>
       <c r="I73" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K73" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="32" t="e">
-        <f>VLOOKUP($T73,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K73" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L73" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M73" s="11">
         <v>1200</v>
       </c>
       <c r="N73" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O73" s="11"/>
       <c r="P73" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q73" s="11"/>
       <c r="R73" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S73" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T73" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U73" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V73" s="27"/>
@@ -4249,50 +4237,50 @@
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
       <c r="G74" s="27"/>
-      <c r="H74" s="51"/>
+      <c r="H74" s="50"/>
       <c r="I74" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K74" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="32" t="e">
-        <f>VLOOKUP($T74,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K74" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L74" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M74" s="11">
         <v>1200</v>
       </c>
       <c r="N74" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O74" s="11"/>
       <c r="P74" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q74" s="11"/>
       <c r="R74" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S74" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T74" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U74" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V74" s="27"/>
@@ -4309,50 +4297,50 @@
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
       <c r="G75" s="27"/>
-      <c r="H75" s="51"/>
+      <c r="H75" s="50"/>
       <c r="I75" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K75" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="32" t="e">
-        <f>VLOOKUP($T75,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K75" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L75" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M75" s="11">
         <v>1200</v>
       </c>
       <c r="N75" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O75" s="11"/>
       <c r="P75" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q75" s="11"/>
       <c r="R75" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S75" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T75" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U75" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V75" s="27"/>
@@ -4369,50 +4357,50 @@
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
       <c r="G76" s="39"/>
-      <c r="H76" s="51"/>
+      <c r="H76" s="50"/>
       <c r="I76" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K76" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="32" t="e">
-        <f>VLOOKUP($T76,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K76" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L76" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M76" s="11">
         <v>1200</v>
       </c>
       <c r="N76" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O76" s="11"/>
       <c r="P76" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q76" s="11"/>
       <c r="R76" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S76" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T76" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U76" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V76" s="27"/>
@@ -4429,50 +4417,50 @@
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="51"/>
+      <c r="H77" s="50"/>
       <c r="I77" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K77" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="32" t="e">
-        <f>VLOOKUP($T77,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K77" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L77" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M77" s="11">
         <v>1200</v>
       </c>
       <c r="N77" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O77" s="11"/>
       <c r="P77" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q77" s="11"/>
       <c r="R77" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S77" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T77" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U77" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V77" s="27"/>
@@ -4489,50 +4477,50 @@
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
       <c r="G78" s="27"/>
-      <c r="H78" s="51"/>
+      <c r="H78" s="50"/>
       <c r="I78" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K78" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="32" t="e">
-        <f>VLOOKUP($T78,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K78" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L78" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M78" s="11">
         <v>1200</v>
       </c>
       <c r="N78" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O78" s="11"/>
       <c r="P78" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q78" s="11"/>
       <c r="R78" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S78" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T78" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U78" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V78" s="27"/>
@@ -4549,50 +4537,50 @@
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
       <c r="G79" s="27"/>
-      <c r="H79" s="51"/>
+      <c r="H79" s="50"/>
       <c r="I79" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K79" s="52" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="32" t="e">
-        <f>VLOOKUP($T79,$T$4:$U$7,2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K79" s="53" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="L79" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M79" s="11">
         <v>1200</v>
       </c>
       <c r="N79" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O79" s="11"/>
       <c r="P79" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q79" s="11"/>
       <c r="R79" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="S79" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="T79" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="U79" s="41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="V79" s="27"/>
@@ -5383,12 +5371,12 @@
     <mergeCell ref="L43:M43"/>
   </mergeCells>
   <conditionalFormatting sqref="R45:R79">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>R45&lt;&gt;K45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>R41&lt;&gt;K41</formula>
     </cfRule>
   </conditionalFormatting>
